--- a/team_specific_matrix/UC San Diego_A.xlsx
+++ b/team_specific_matrix/UC San Diego_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.14</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C2">
-        <v>0.635</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.125</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0078125</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="C3">
-        <v>0.015625</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.02906976744186046</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7421875</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.203125</v>
+        <v>0.2034883720930233</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02777777777777778</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6944444444444444</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2777777777777778</v>
+        <v>0.2363636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03703703703703703</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006172839506172839</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="E6">
-        <v>0.006172839506172839</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="F6">
-        <v>0.08024691358024691</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2654320987654321</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01234567901234568</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1419753086419753</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0.09876543209876543</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="S6">
-        <v>0.3518518518518519</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06363636363636363</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02727272727272727</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1090909090909091</v>
+        <v>0.14</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00909090909090909</v>
+        <v>0.02</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1636363636363636</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="R7">
-        <v>0.1181818181818182</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="S7">
-        <v>0.4090909090909091</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0935672514619883</v>
+        <v>0.1032110091743119</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005847953216374269</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07602339181286549</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1111111111111111</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03216374269005848</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1754385964912281</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="R8">
-        <v>0.1286549707602339</v>
+        <v>0.1215596330275229</v>
       </c>
       <c r="S8">
-        <v>0.3771929824561404</v>
+        <v>0.3577981651376147</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09655172413793103</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02758620689655172</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E9">
-        <v>0.006896551724137931</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="F9">
-        <v>0.03448275862068965</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1172413793103448</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02068965517241379</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1724137931034483</v>
+        <v>0.1722222222222222</v>
       </c>
       <c r="R9">
-        <v>0.1103448275862069</v>
+        <v>0.1055555555555556</v>
       </c>
       <c r="S9">
-        <v>0.4137931034482759</v>
+        <v>0.3944444444444444</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1141942369263607</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0256136606189968</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="E10">
-        <v>0.001067235859124867</v>
+        <v>0.0008116883116883117</v>
       </c>
       <c r="F10">
-        <v>0.07577374599786553</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1077908217716115</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02454642475987193</v>
+        <v>0.02191558441558442</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1942369263607257</v>
+        <v>0.2021103896103896</v>
       </c>
       <c r="R10">
-        <v>0.1067235859124867</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="S10">
-        <v>0.3500533617929563</v>
+        <v>0.3547077922077922</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1371428571428571</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.12</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K11">
-        <v>0.1885714285714286</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L11">
-        <v>0.5485714285714286</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.005714285714285714</v>
+        <v>0.004273504273504274</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6363636363636364</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2727272727272727</v>
+        <v>0.2426470588235294</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0303030303030303</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7428571428571429</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2571428571428571</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03684210526315789</v>
+        <v>0.03347280334728033</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2263157894736842</v>
+        <v>0.2050209205020921</v>
       </c>
       <c r="I15">
-        <v>0.05789473684210526</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="J15">
-        <v>0.3157894736842105</v>
+        <v>0.3221757322175732</v>
       </c>
       <c r="K15">
-        <v>0.07368421052631578</v>
+        <v>0.05857740585774059</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005263157894736842</v>
+        <v>0.004184100418410041</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05263157894736842</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2315789473684211</v>
+        <v>0.2635983263598327</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007246376811594203</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1594202898550725</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="I16">
-        <v>0.1159420289855072</v>
+        <v>0.1117021276595745</v>
       </c>
       <c r="J16">
-        <v>0.3840579710144927</v>
+        <v>0.3882978723404255</v>
       </c>
       <c r="K16">
-        <v>0.08695652173913043</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02173913043478261</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06521739130434782</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1594202898550725</v>
+        <v>0.1542553191489362</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02588996763754045</v>
+        <v>0.02137767220902613</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1715210355987055</v>
+        <v>0.166270783847981</v>
       </c>
       <c r="I17">
-        <v>0.1100323624595469</v>
+        <v>0.1021377672209026</v>
       </c>
       <c r="J17">
-        <v>0.4498381877022654</v>
+        <v>0.4513064133016627</v>
       </c>
       <c r="K17">
-        <v>0.06472491909385113</v>
+        <v>0.07125890736342043</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0226537216828479</v>
+        <v>0.02612826603325416</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05501618122977346</v>
+        <v>0.04513064133016627</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1003236245954693</v>
+        <v>0.1163895486935867</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03191489361702127</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1648936170212766</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.0797872340425532</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="J18">
-        <v>0.4787234042553192</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="K18">
-        <v>0.0851063829787234</v>
+        <v>0.0811965811965812</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01063829787234043</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05851063829787234</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09042553191489362</v>
+        <v>0.09829059829059829</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01349831271091114</v>
+        <v>0.01380500431406385</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2204724409448819</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="I19">
-        <v>0.0798650168728909</v>
+        <v>0.07420189818809318</v>
       </c>
       <c r="J19">
-        <v>0.3734533183352081</v>
+        <v>0.3805004314063848</v>
       </c>
       <c r="K19">
-        <v>0.09111361079865017</v>
+        <v>0.09663503019844694</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02474690663667042</v>
+        <v>0.02415875754961173</v>
       </c>
       <c r="N19">
-        <v>0.001124859392575928</v>
+        <v>0.001725625539257981</v>
       </c>
       <c r="O19">
-        <v>0.0843644544431946</v>
+        <v>0.08369283865401209</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1113610798650169</v>
+        <v>0.1121656600517688</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC San Diego_A.xlsx
+++ b/team_specific_matrix/UC San Diego_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1307692307692308</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C2">
-        <v>0.6538461538461539</v>
+        <v>0.6566666666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09230769230769231</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1230769230769231</v>
+        <v>0.1166666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005813953488372093</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C3">
-        <v>0.01744186046511628</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02906976744186046</v>
+        <v>0.03517587939698492</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7441860465116279</v>
+        <v>0.7537688442211056</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2034883720930233</v>
+        <v>0.1909547738693467</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03636363636363636</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P4">
-        <v>0.7272727272727273</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2363636363636364</v>
+        <v>0.2419354838709677</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03333333333333333</v>
+        <v>0.04680851063829787</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009523809523809525</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="E6">
-        <v>0.004761904761904762</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="F6">
-        <v>0.07142857142857142</v>
+        <v>0.06808510638297872</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2666666666666667</v>
+        <v>0.2723404255319149</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01428571428571429</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1574468085106383</v>
       </c>
       <c r="R6">
-        <v>0.09047619047619047</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S6">
-        <v>0.3428571428571429</v>
+        <v>0.3404255319148936</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1266666666666667</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04666666666666667</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02666666666666667</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.14</v>
+        <v>0.1286549707602339</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1733333333333333</v>
+        <v>0.1695906432748538</v>
       </c>
       <c r="R7">
-        <v>0.1066666666666667</v>
+        <v>0.09941520467836257</v>
       </c>
       <c r="S7">
-        <v>0.36</v>
+        <v>0.3859649122807017</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1032110091743119</v>
+        <v>0.1108870967741935</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01834862385321101</v>
+        <v>0.02016129032258064</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07798165137614679</v>
+        <v>0.07862903225806452</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1055045871559633</v>
+        <v>0.1068548387096774</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02752293577981652</v>
+        <v>0.03024193548387097</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1880733944954129</v>
+        <v>0.1834677419354839</v>
       </c>
       <c r="R8">
-        <v>0.1215596330275229</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="S8">
-        <v>0.3577981651376147</v>
+        <v>0.3568548387096774</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1055555555555556</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02777777777777778</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="E9">
-        <v>0.005555555555555556</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="F9">
-        <v>0.04444444444444445</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1111111111111111</v>
+        <v>0.1065989847715736</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03333333333333333</v>
+        <v>0.03045685279187817</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1722222222222222</v>
+        <v>0.1624365482233502</v>
       </c>
       <c r="R9">
-        <v>0.1055555555555556</v>
+        <v>0.1015228426395939</v>
       </c>
       <c r="S9">
-        <v>0.3944444444444444</v>
+        <v>0.4060913705583756</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1071428571428571</v>
+        <v>0.1067251461988304</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02840909090909091</v>
+        <v>0.02704678362573099</v>
       </c>
       <c r="E10">
-        <v>0.0008116883116883117</v>
+        <v>0.0007309941520467836</v>
       </c>
       <c r="F10">
-        <v>0.07386363636363637</v>
+        <v>0.07383040935672515</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1071428571428571</v>
+        <v>0.1067251461988304</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02191558441558442</v>
+        <v>0.02046783625730994</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2021103896103896</v>
+        <v>0.2010233918128655</v>
       </c>
       <c r="R10">
-        <v>0.1038961038961039</v>
+        <v>0.1067251461988304</v>
       </c>
       <c r="S10">
-        <v>0.3547077922077922</v>
+        <v>0.3567251461988304</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1367521367521368</v>
+        <v>0.1338289962825279</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1111111111111111</v>
+        <v>0.1152416356877323</v>
       </c>
       <c r="K11">
-        <v>0.1923076923076923</v>
+        <v>0.1895910780669145</v>
       </c>
       <c r="L11">
-        <v>0.5555555555555556</v>
+        <v>0.5539033457249071</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004273504273504274</v>
+        <v>0.007434944237918215</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6617647058823529</v>
+        <v>0.6687898089171974</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2426470588235294</v>
+        <v>0.2292993630573248</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03676470588235294</v>
+        <v>0.03821656050955414</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05882352941176471</v>
+        <v>0.06369426751592357</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6976744186046512</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2558139534883721</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04651162790697674</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03347280334728033</v>
+        <v>0.0299625468164794</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2050209205020921</v>
+        <v>0.1947565543071161</v>
       </c>
       <c r="I15">
-        <v>0.06694560669456066</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="J15">
-        <v>0.3221757322175732</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="K15">
-        <v>0.05857740585774059</v>
+        <v>0.06367041198501873</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004184100418410041</v>
+        <v>0.003745318352059925</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04602510460251046</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2635983263598327</v>
+        <v>0.2696629213483146</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01063829787234043</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1808510638297872</v>
+        <v>0.1889400921658986</v>
       </c>
       <c r="I16">
-        <v>0.1117021276595745</v>
+        <v>0.1013824884792627</v>
       </c>
       <c r="J16">
-        <v>0.3882978723404255</v>
+        <v>0.4009216589861751</v>
       </c>
       <c r="K16">
-        <v>0.0797872340425532</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01595744680851064</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05851063829787234</v>
+        <v>0.05529953917050692</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1542553191489362</v>
+        <v>0.152073732718894</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02137767220902613</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.166270783847981</v>
+        <v>0.1861471861471861</v>
       </c>
       <c r="I17">
-        <v>0.1021377672209026</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="J17">
-        <v>0.4513064133016627</v>
+        <v>0.4329004329004329</v>
       </c>
       <c r="K17">
-        <v>0.07125890736342043</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02612826603325416</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04513064133016627</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1163895486935867</v>
+        <v>0.1147186147186147</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03418803418803419</v>
+        <v>0.03891050583657588</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1750972762645914</v>
       </c>
       <c r="I18">
-        <v>0.06837606837606838</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="J18">
-        <v>0.4786324786324787</v>
+        <v>0.4513618677042802</v>
       </c>
       <c r="K18">
-        <v>0.0811965811965812</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008547008547008548</v>
+        <v>0.007782101167315175</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0641025641025641</v>
+        <v>0.07392996108949416</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09829059829059829</v>
+        <v>0.1050583657587549</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01380500431406385</v>
+        <v>0.01381427475057559</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2131147540983606</v>
+        <v>0.2110514198004605</v>
       </c>
       <c r="I19">
-        <v>0.07420189818809318</v>
+        <v>0.07214121258633922</v>
       </c>
       <c r="J19">
-        <v>0.3805004314063848</v>
+        <v>0.3844973138910207</v>
       </c>
       <c r="K19">
-        <v>0.09663503019844694</v>
+        <v>0.1005372217958557</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02415875754961173</v>
+        <v>0.02455871066768995</v>
       </c>
       <c r="N19">
-        <v>0.001725625539257981</v>
+        <v>0.001534919416730622</v>
       </c>
       <c r="O19">
-        <v>0.08369283865401209</v>
+        <v>0.08135072908672294</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1121656600517688</v>
+        <v>0.1105141980046048</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UC San Diego_A.xlsx
+++ b/team_specific_matrix/UC San Diego_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1333333333333333</v>
+        <v>0.1335504885993485</v>
       </c>
       <c r="C2">
-        <v>0.6566666666666666</v>
+        <v>0.6514657980456026</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09333333333333334</v>
+        <v>0.09446254071661238</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1166666666666667</v>
+        <v>0.1205211726384365</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005025125628140704</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="C3">
-        <v>0.01507537688442211</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03517587939698492</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7537688442211056</v>
+        <v>0.7524752475247525</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1909547738693467</v>
+        <v>0.1930693069306931</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="P4">
-        <v>0.7096774193548387</v>
+        <v>0.703125</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2419354838709677</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04680851063829787</v>
+        <v>0.04897959183673469</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01276595744680851</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="E6">
-        <v>0.00425531914893617</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="F6">
-        <v>0.06808510638297872</v>
+        <v>0.07346938775510205</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2723404255319149</v>
+        <v>0.2612244897959184</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01276595744680851</v>
+        <v>0.01224489795918367</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1574468085106383</v>
+        <v>0.1673469387755102</v>
       </c>
       <c r="R6">
-        <v>0.0851063829787234</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="S6">
-        <v>0.3404255319148936</v>
+        <v>0.3387755102040816</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1228070175438596</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04093567251461988</v>
+        <v>0.03888888888888889</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02339181286549707</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1286549707602339</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02923976608187134</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1695906432748538</v>
+        <v>0.1611111111111111</v>
       </c>
       <c r="R7">
-        <v>0.09941520467836257</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="S7">
-        <v>0.3859649122807017</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1108870967741935</v>
+        <v>0.1119842829076621</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02016129032258064</v>
+        <v>0.02161100196463654</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07862903225806452</v>
+        <v>0.08055009823182711</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1068548387096774</v>
+        <v>0.106090373280943</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03024193548387097</v>
+        <v>0.02946954813359529</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1834677419354839</v>
+        <v>0.1866404715127701</v>
       </c>
       <c r="R8">
-        <v>0.1129032258064516</v>
+        <v>0.1119842829076621</v>
       </c>
       <c r="S8">
-        <v>0.3568548387096774</v>
+        <v>0.3516699410609037</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1116751269035533</v>
+        <v>0.1170731707317073</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03045685279187817</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="E9">
-        <v>0.005076142131979695</v>
+        <v>0.004878048780487805</v>
       </c>
       <c r="F9">
-        <v>0.04568527918781726</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1065989847715736</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03045685279187817</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1624365482233502</v>
+        <v>0.1560975609756098</v>
       </c>
       <c r="R9">
-        <v>0.1015228426395939</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="S9">
-        <v>0.4060913705583756</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1067251461988304</v>
+        <v>0.104551920341394</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02704678362573099</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="E10">
-        <v>0.0007309941520467836</v>
+        <v>0.0007112375533428165</v>
       </c>
       <c r="F10">
-        <v>0.07383040935672515</v>
+        <v>0.07539118065433854</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1067251461988304</v>
+        <v>0.1073968705547653</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02046783625730994</v>
+        <v>0.02062588904694168</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2010233918128655</v>
+        <v>0.2012802275960171</v>
       </c>
       <c r="R10">
-        <v>0.1067251461988304</v>
+        <v>0.1066856330014225</v>
       </c>
       <c r="S10">
-        <v>0.3567251461988304</v>
+        <v>0.3563300142247511</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1338289962825279</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1152416356877323</v>
+        <v>0.1134751773049645</v>
       </c>
       <c r="K11">
-        <v>0.1895910780669145</v>
+        <v>0.1914893617021277</v>
       </c>
       <c r="L11">
-        <v>0.5539033457249071</v>
+        <v>0.5496453900709219</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007434944237918215</v>
+        <v>0.007092198581560284</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6687898089171974</v>
+        <v>0.6809815950920245</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2292993630573248</v>
+        <v>0.2208588957055215</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.03821656050955414</v>
+        <v>0.03680981595092025</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.06369426751592357</v>
+        <v>0.06134969325153374</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7083333333333334</v>
+        <v>0.7</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0299625468164794</v>
+        <v>0.0293040293040293</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1947565543071161</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I15">
-        <v>0.06741573033707865</v>
+        <v>0.0695970695970696</v>
       </c>
       <c r="J15">
-        <v>0.3258426966292135</v>
+        <v>0.3223443223443224</v>
       </c>
       <c r="K15">
-        <v>0.06367041198501873</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.003745318352059925</v>
+        <v>0.007326007326007326</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0449438202247191</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2696629213483146</v>
+        <v>0.271062271062271</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01382488479262673</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1889400921658986</v>
+        <v>0.1900452488687783</v>
       </c>
       <c r="I16">
-        <v>0.1013824884792627</v>
+        <v>0.1040723981900453</v>
       </c>
       <c r="J16">
-        <v>0.4009216589861751</v>
+        <v>0.3981900452488688</v>
       </c>
       <c r="K16">
-        <v>0.07373271889400922</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01382488479262673</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05529953917050692</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.152073732718894</v>
+        <v>0.1493212669683258</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01948051948051948</v>
+        <v>0.01882845188284519</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1861471861471861</v>
+        <v>0.1861924686192468</v>
       </c>
       <c r="I17">
-        <v>0.09956709956709957</v>
+        <v>0.09832635983263599</v>
       </c>
       <c r="J17">
-        <v>0.4329004329004329</v>
+        <v>0.4393305439330544</v>
       </c>
       <c r="K17">
-        <v>0.0735930735930736</v>
+        <v>0.07322175732217573</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02597402597402598</v>
+        <v>0.02510460251046025</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04761904761904762</v>
+        <v>0.04602510460251046</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1147186147186147</v>
+        <v>0.1129707112970711</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03891050583657588</v>
+        <v>0.03802281368821293</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1750972762645914</v>
+        <v>0.1787072243346008</v>
       </c>
       <c r="I18">
-        <v>0.07392996108949416</v>
+        <v>0.07604562737642585</v>
       </c>
       <c r="J18">
-        <v>0.4513618677042802</v>
+        <v>0.44106463878327</v>
       </c>
       <c r="K18">
-        <v>0.07392996108949416</v>
+        <v>0.07224334600760456</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007782101167315175</v>
+        <v>0.007604562737642586</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07392996108949416</v>
+        <v>0.07984790874524715</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1050583657587549</v>
+        <v>0.1064638783269962</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01381427475057559</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2110514198004605</v>
+        <v>0.2098214285714286</v>
       </c>
       <c r="I19">
-        <v>0.07214121258633922</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="J19">
-        <v>0.3844973138910207</v>
+        <v>0.3846726190476191</v>
       </c>
       <c r="K19">
-        <v>0.1005372217958557</v>
+        <v>0.1026785714285714</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02455871066768995</v>
+        <v>0.02455357142857143</v>
       </c>
       <c r="N19">
-        <v>0.001534919416730622</v>
+        <v>0.001488095238095238</v>
       </c>
       <c r="O19">
-        <v>0.08135072908672294</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1105141980046048</v>
+        <v>0.1101190476190476</v>
       </c>
     </row>
   </sheetData>
